--- a/biology/Biologie cellulaire et moléculaire/Région_déterminant_la_complémentarité/Région_déterminant_la_complémentarité.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Région_déterminant_la_complémentarité/Région_déterminant_la_complémentarité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_d%C3%A9terminant_la_compl%C3%A9mentarit%C3%A9</t>
+          <t>Région_déterminant_la_complémentarité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le domaine de la biologie cellulaire, les régions déterminant la complémentarité (CDR)[1] correspondent à des régions spécifiques d'anticorps (appartenant aux chaînes légères des immunoglobulines) sans domaine immunoglobulinique. Ils déterminent l'avidité de l'immunoglobuline, et la spécificité pour quelques antigènes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine de la biologie cellulaire, les régions déterminant la complémentarité (CDR) correspondent à des régions spécifiques d'anticorps (appartenant aux chaînes légères des immunoglobulines) sans domaine immunoglobulinique. Ils déterminent l'avidité de l'immunoglobuline, et la spécificité pour quelques antigènes.
 Ces CDR sont les parties les plus variables des anticorps et contribuent donc à leur diversité, et à la reconnaissance d'un très vaste répertoire d'antigènes.
 </t>
         </is>
